--- a/openfisca_france_data/build_eipp_survey_data/correspondances_eipp_OF.xlsx
+++ b/openfisca_france_data/build_eipp_survey_data/correspondances_eipp_OF.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="1063">
   <si>
     <t>Var_OF</t>
   </si>
@@ -3202,13 +3202,19 @@
   </si>
   <si>
     <t>age_conj</t>
+  </si>
+  <si>
+    <t>id_fam</t>
+  </si>
+  <si>
+    <t>noindiv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3245,12 +3251,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3347,9 +3347,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3358,8 +3355,11 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6489,25 +6489,25 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477"/>
-      <c r="B477" s="14"/>
+      <c r="B477" s="18"/>
       <c r="C477" s="11"/>
       <c r="D477" s="11"/>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478"/>
-      <c r="B478" s="14"/>
+      <c r="B478" s="18"/>
       <c r="C478" s="11"/>
       <c r="D478" s="11"/>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479"/>
-      <c r="B479" s="14"/>
+      <c r="B479" s="18"/>
       <c r="C479" s="11"/>
       <c r="D479" s="11"/>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480"/>
-      <c r="B480" s="14"/>
+      <c r="B480" s="18"/>
       <c r="C480" s="11"/>
       <c r="D480" s="11"/>
     </row>
@@ -6530,7 +6530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G362"/>
   <sheetViews>
-    <sheetView topLeftCell="A204" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B221" sqref="B221"/>
     </sheetView>
   </sheetViews>
@@ -9016,37 +9016,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
-      <selection activeCell="E369" sqref="E369"/>
+    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
+      <selection activeCell="E400" sqref="E400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="15"/>
-    <col min="2" max="2" width="11.85546875" style="16"/>
-    <col min="3" max="4" width="11.42578125" style="16"/>
-    <col min="5" max="5" width="20.42578125" style="15"/>
+    <col min="1" max="1" width="11.42578125" style="14"/>
+    <col min="2" max="2" width="11.85546875" style="15"/>
+    <col min="3" max="4" width="11.42578125" style="15"/>
+    <col min="5" max="5" width="20.42578125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>991</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B2"/>
@@ -9055,7 +9055,7 @@
       <c r="E2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B3"/>
@@ -9064,7 +9064,7 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B4"/>
@@ -9073,7 +9073,7 @@
       <c r="E4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B5"/>
@@ -9082,7 +9082,7 @@
       <c r="E5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B6"/>
@@ -9091,7 +9091,7 @@
       <c r="E6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B7"/>
@@ -9100,7 +9100,7 @@
       <c r="E7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B8"/>
@@ -9109,7 +9109,7 @@
       <c r="E8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B9"/>
@@ -9118,7 +9118,7 @@
       <c r="E9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B10"/>
@@ -9127,7 +9127,7 @@
       <c r="E10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B11"/>
@@ -9136,7 +9136,7 @@
       <c r="E11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B12"/>
@@ -9145,7 +9145,7 @@
       <c r="E12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B13"/>
@@ -9154,7 +9154,7 @@
       <c r="E13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B14"/>
@@ -9163,7 +9163,7 @@
       <c r="E14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B15"/>
@@ -9172,7 +9172,7 @@
       <c r="E15"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B16"/>
@@ -9181,7 +9181,7 @@
       <c r="E16"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B17"/>
@@ -9190,10 +9190,10 @@
       <c r="E17"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <v>4</v>
       </c>
       <c r="C18"/>
@@ -9201,20 +9201,20 @@
       <c r="E18"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <v>1</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B20"/>
@@ -9223,7 +9223,7 @@
       <c r="E20"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B21"/>
@@ -9232,23 +9232,23 @@
       <c r="E21"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="15">
         <v>1</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="15">
         <v>4</v>
       </c>
       <c r="C23"/>
@@ -9256,10 +9256,10 @@
       <c r="E23"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="15">
         <v>4</v>
       </c>
       <c r="C24"/>
@@ -9267,33 +9267,33 @@
       <c r="E24"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="15">
         <v>1</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="15">
         <v>1</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B27"/>
@@ -9302,7 +9302,7 @@
       <c r="E27"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B28"/>
@@ -9311,7 +9311,7 @@
       <c r="E28"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B29"/>
@@ -9320,7 +9320,7 @@
       <c r="E29"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B30"/>
@@ -9329,7 +9329,7 @@
       <c r="E30"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B31"/>
@@ -9338,7 +9338,7 @@
       <c r="E31"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B32"/>
@@ -9347,7 +9347,7 @@
       <c r="E32"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B33"/>
@@ -9356,25 +9356,25 @@
       <c r="E33"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="15">
         <v>8</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="14" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B36"/>
@@ -9383,7 +9383,7 @@
       <c r="E36"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B37"/>
@@ -9392,7 +9392,7 @@
       <c r="E37"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B38"/>
@@ -9401,12 +9401,12 @@
       <c r="E38"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B40"/>
@@ -9415,7 +9415,7 @@
       <c r="E40"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B41"/>
@@ -9424,7 +9424,7 @@
       <c r="E41"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B42"/>
@@ -9433,7 +9433,7 @@
       <c r="E42"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B43"/>
@@ -9442,7 +9442,7 @@
       <c r="E43"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B44"/>
@@ -9451,7 +9451,7 @@
       <c r="E44"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B45"/>
@@ -9460,7 +9460,7 @@
       <c r="E45"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B46"/>
@@ -9469,7 +9469,7 @@
       <c r="E46"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B47"/>
@@ -9478,7 +9478,7 @@
       <c r="E47"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B48"/>
@@ -9487,7 +9487,7 @@
       <c r="E48"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B49"/>
@@ -9496,7 +9496,7 @@
       <c r="E49"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B50"/>
@@ -9505,7 +9505,7 @@
       <c r="E50"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B51"/>
@@ -9514,7 +9514,7 @@
       <c r="E51"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B52"/>
@@ -9523,7 +9523,7 @@
       <c r="E52"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B53"/>
@@ -9532,7 +9532,7 @@
       <c r="E53"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B54"/>
@@ -9541,7 +9541,7 @@
       <c r="E54"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B55"/>
@@ -9550,7 +9550,7 @@
       <c r="E55"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="14" t="s">
         <v>60</v>
       </c>
       <c r="B56"/>
@@ -9559,35 +9559,35 @@
       <c r="E56"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="15">
         <v>5</v>
       </c>
       <c r="C57"/>
       <c r="D57"/>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="15">
         <v>2</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="15" t="s">
         <v>63</v>
       </c>
       <c r="D58"/>
-      <c r="E58" s="15" t="s">
+      <c r="E58" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B59"/>
@@ -9596,7 +9596,7 @@
       <c r="E59"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B60"/>
@@ -9605,7 +9605,7 @@
       <c r="E60"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B61"/>
@@ -9614,50 +9614,50 @@
       <c r="E61"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B62" s="15">
         <v>2</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="15" t="s">
         <v>63</v>
       </c>
       <c r="D62"/>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B63" s="15">
         <v>8</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="15" t="s">
         <v>63</v>
       </c>
       <c r="D63"/>
-      <c r="E63" s="15" t="s">
+      <c r="E63" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B64" s="15">
         <v>1</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
-      <c r="E64" s="15" t="s">
+      <c r="E64" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B65"/>
@@ -9666,7 +9666,7 @@
       <c r="E65"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B66"/>
@@ -9675,20 +9675,20 @@
       <c r="E66"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="16">
+      <c r="B67" s="15">
         <v>1</v>
       </c>
       <c r="C67"/>
       <c r="D67"/>
-      <c r="E67" s="15" t="s">
+      <c r="E67" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B68"/>
@@ -9697,7 +9697,7 @@
       <c r="E68"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B69"/>
@@ -9706,7 +9706,7 @@
       <c r="E69"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B70"/>
@@ -9715,7 +9715,7 @@
       <c r="E70"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B71"/>
@@ -9724,33 +9724,33 @@
       <c r="E71"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="16">
+      <c r="B72" s="15">
         <v>1</v>
       </c>
       <c r="C72"/>
       <c r="D72"/>
-      <c r="E72" s="15" t="s">
+      <c r="E72" s="14" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B73" s="16">
-        <v>2</v>
+      <c r="B73" s="15">
+        <v>1</v>
       </c>
       <c r="C73"/>
       <c r="D73"/>
-      <c r="E73" s="15" t="s">
-        <v>83</v>
+      <c r="E73" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="14" t="s">
         <v>84</v>
       </c>
       <c r="B74"/>
@@ -9759,7 +9759,7 @@
       <c r="E74"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B75"/>
@@ -9768,7 +9768,7 @@
       <c r="E75"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B76"/>
@@ -9777,10 +9777,10 @@
       <c r="E76"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B77" s="16">
+      <c r="B77" s="15">
         <v>4</v>
       </c>
       <c r="C77"/>
@@ -9788,20 +9788,20 @@
       <c r="E77"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B78" s="16">
+      <c r="B78" s="15">
         <v>2</v>
       </c>
       <c r="C78"/>
       <c r="D78"/>
-      <c r="E78" s="15" t="s">
+      <c r="E78" s="14" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B79"/>
@@ -9810,7 +9810,7 @@
       <c r="E79"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B80"/>
@@ -9819,7 +9819,7 @@
       <c r="E80"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="14" t="s">
         <v>92</v>
       </c>
       <c r="B81"/>
@@ -9828,7 +9828,7 @@
       <c r="E81"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B82"/>
@@ -9837,7 +9837,7 @@
       <c r="E82"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B83"/>
@@ -9846,7 +9846,7 @@
       <c r="E83"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B84"/>
@@ -9855,7 +9855,7 @@
       <c r="E84"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B85"/>
@@ -9864,7 +9864,7 @@
       <c r="E85"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="14" t="s">
         <v>97</v>
       </c>
       <c r="B86"/>
@@ -9873,7 +9873,7 @@
       <c r="E86"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="14" t="s">
         <v>98</v>
       </c>
       <c r="B87"/>
@@ -9882,7 +9882,7 @@
       <c r="E87"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="14" t="s">
         <v>99</v>
       </c>
       <c r="B88"/>
@@ -9891,7 +9891,7 @@
       <c r="E88"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B89"/>
@@ -9900,7 +9900,7 @@
       <c r="E89"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="14" t="s">
         <v>101</v>
       </c>
       <c r="B90"/>
@@ -9909,7 +9909,7 @@
       <c r="E90"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="14" t="s">
         <v>102</v>
       </c>
       <c r="B91"/>
@@ -9918,7 +9918,7 @@
       <c r="E91"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="14" t="s">
         <v>103</v>
       </c>
       <c r="B92"/>
@@ -9927,7 +9927,7 @@
       <c r="E92"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="14" t="s">
         <v>104</v>
       </c>
       <c r="B93"/>
@@ -9936,7 +9936,7 @@
       <c r="E93"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="14" t="s">
         <v>105</v>
       </c>
       <c r="B94"/>
@@ -9945,7 +9945,7 @@
       <c r="E94"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B95"/>
@@ -9954,7 +9954,7 @@
       <c r="E95"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="14" t="s">
         <v>107</v>
       </c>
       <c r="B96"/>
@@ -9963,7 +9963,7 @@
       <c r="E96"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="14" t="s">
         <v>108</v>
       </c>
       <c r="B97"/>
@@ -9972,7 +9972,7 @@
       <c r="E97"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="15" t="s">
+      <c r="A98" s="14" t="s">
         <v>109</v>
       </c>
       <c r="B98"/>
@@ -9981,7 +9981,7 @@
       <c r="E98"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="15" t="s">
+      <c r="A99" s="14" t="s">
         <v>110</v>
       </c>
       <c r="B99"/>
@@ -9990,7 +9990,7 @@
       <c r="E99"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="15" t="s">
+      <c r="A100" s="14" t="s">
         <v>111</v>
       </c>
       <c r="B100"/>
@@ -9999,7 +9999,7 @@
       <c r="E100"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="15" t="s">
+      <c r="A101" s="14" t="s">
         <v>112</v>
       </c>
       <c r="B101"/>
@@ -10008,7 +10008,7 @@
       <c r="E101"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="15" t="s">
+      <c r="A102" s="14" t="s">
         <v>113</v>
       </c>
       <c r="B102"/>
@@ -10017,7 +10017,7 @@
       <c r="E102"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="15" t="s">
+      <c r="A103" s="14" t="s">
         <v>114</v>
       </c>
       <c r="B103"/>
@@ -10026,7 +10026,7 @@
       <c r="E103"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="15" t="s">
+      <c r="A104" s="14" t="s">
         <v>115</v>
       </c>
       <c r="B104"/>
@@ -10035,7 +10035,7 @@
       <c r="E104"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="15" t="s">
+      <c r="A105" s="14" t="s">
         <v>116</v>
       </c>
       <c r="B105"/>
@@ -10044,7 +10044,7 @@
       <c r="E105"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="15" t="s">
+      <c r="A106" s="14" t="s">
         <v>117</v>
       </c>
       <c r="B106"/>
@@ -10053,108 +10053,108 @@
       <c r="E106"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="15" t="s">
+      <c r="A107" s="14" t="s">
         <v>118</v>
       </c>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
-      <c r="E107" s="15" t="s">
+      <c r="E107" s="14" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B108" s="16">
+      <c r="B108" s="15">
         <v>8</v>
       </c>
-      <c r="C108" s="16" t="s">
+      <c r="C108" s="15" t="s">
         <v>120</v>
       </c>
       <c r="D108"/>
-      <c r="E108" s="15" t="s">
+      <c r="E108" s="14" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B109" s="16">
+      <c r="B109" s="15">
         <v>8</v>
       </c>
-      <c r="C109" s="16" t="s">
+      <c r="C109" s="15" t="s">
         <v>123</v>
       </c>
       <c r="D109"/>
-      <c r="E109" s="15" t="s">
+      <c r="E109" s="14" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="15" t="s">
+      <c r="A110" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B110" s="16">
+      <c r="B110" s="15">
         <v>1</v>
       </c>
-      <c r="C110" s="16" t="s">
+      <c r="C110" s="15" t="s">
         <v>126</v>
       </c>
       <c r="D110"/>
-      <c r="E110" s="15" t="s">
+      <c r="E110" s="14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="15" t="s">
+      <c r="A111" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B111" s="16">
+      <c r="B111" s="15">
         <v>2</v>
       </c>
-      <c r="C111" s="16" t="s">
+      <c r="C111" s="15" t="s">
         <v>120</v>
       </c>
       <c r="D111"/>
-      <c r="E111" s="15" t="s">
+      <c r="E111" s="14" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="15" t="s">
+      <c r="A112" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B112" s="16">
+      <c r="B112" s="15">
         <v>2</v>
       </c>
-      <c r="C112" s="16" t="s">
+      <c r="C112" s="15" t="s">
         <v>123</v>
       </c>
       <c r="D112"/>
-      <c r="E112" s="15" t="s">
+      <c r="E112" s="14" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="15" t="s">
+      <c r="A113" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B113" s="16">
+      <c r="B113" s="15">
         <v>2</v>
       </c>
-      <c r="C113" s="16" t="s">
+      <c r="C113" s="15" t="s">
         <v>131</v>
       </c>
       <c r="D113"/>
-      <c r="E113" s="15" t="s">
+      <c r="E113" s="14" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="15" t="s">
+      <c r="A114" s="14" t="s">
         <v>133</v>
       </c>
       <c r="B114"/>
@@ -10163,52 +10163,52 @@
       <c r="E114"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="15" t="s">
+      <c r="A115" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B115" s="16">
+      <c r="B115" s="15">
         <v>2</v>
       </c>
-      <c r="C115" s="16" t="s">
+      <c r="C115" s="15" t="s">
         <v>131</v>
       </c>
       <c r="D115"/>
-      <c r="E115" s="15" t="s">
+      <c r="E115" s="14" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="15" t="s">
+      <c r="A116" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B116" s="16">
+      <c r="B116" s="15">
         <v>8</v>
       </c>
-      <c r="C116" s="16" t="s">
+      <c r="C116" s="15" t="s">
         <v>131</v>
       </c>
       <c r="D116"/>
-      <c r="E116" s="15" t="s">
+      <c r="E116" s="14" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B117" s="16">
+      <c r="B117" s="15">
         <v>2</v>
       </c>
-      <c r="C117" s="16" t="s">
+      <c r="C117" s="15" t="s">
         <v>995</v>
       </c>
       <c r="D117"/>
-      <c r="E117" s="15" t="s">
+      <c r="E117" s="14" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="15" t="s">
+      <c r="A118" s="14" t="s">
         <v>138</v>
       </c>
       <c r="B118"/>
@@ -10217,7 +10217,7 @@
       <c r="E118"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="15" t="s">
+      <c r="A119" s="14" t="s">
         <v>139</v>
       </c>
       <c r="B119"/>
@@ -10226,7 +10226,7 @@
       <c r="E119"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="15" t="s">
+      <c r="A120" s="14" t="s">
         <v>140</v>
       </c>
       <c r="B120"/>
@@ -10235,7 +10235,7 @@
       <c r="E120"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="15" t="s">
+      <c r="A121" s="14" t="s">
         <v>141</v>
       </c>
       <c r="B121"/>
@@ -10244,22 +10244,22 @@
       <c r="E121"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="15" t="s">
+      <c r="A122" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B122" s="16">
+      <c r="B122" s="15">
         <v>1</v>
       </c>
-      <c r="C122" s="16" t="s">
+      <c r="C122" s="15" t="s">
         <v>143</v>
       </c>
       <c r="D122"/>
-      <c r="E122" s="15" t="s">
+      <c r="E122" s="14" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="15" t="s">
+      <c r="A123" s="14" t="s">
         <v>145</v>
       </c>
       <c r="B123"/>
@@ -10268,7 +10268,7 @@
       <c r="E123"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="15" t="s">
+      <c r="A124" s="14" t="s">
         <v>146</v>
       </c>
       <c r="B124"/>
@@ -10277,7 +10277,7 @@
       <c r="E124"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="15" t="s">
+      <c r="A125" s="14" t="s">
         <v>147</v>
       </c>
       <c r="B125"/>
@@ -10286,7 +10286,7 @@
       <c r="E125"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="15" t="s">
+      <c r="A126" s="14" t="s">
         <v>148</v>
       </c>
       <c r="B126"/>
@@ -10295,7 +10295,7 @@
       <c r="E126"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="15" t="s">
+      <c r="A127" s="14" t="s">
         <v>149</v>
       </c>
       <c r="B127"/>
@@ -10304,7 +10304,7 @@
       <c r="E127"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="15" t="s">
+      <c r="A128" s="14" t="s">
         <v>150</v>
       </c>
       <c r="B128"/>
@@ -10313,7 +10313,7 @@
       <c r="E128"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="15" t="s">
+      <c r="A129" s="14" t="s">
         <v>151</v>
       </c>
       <c r="B129"/>
@@ -10322,7 +10322,7 @@
       <c r="E129"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="15" t="s">
+      <c r="A130" s="14" t="s">
         <v>152</v>
       </c>
       <c r="B130"/>
@@ -10331,7 +10331,7 @@
       <c r="E130"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="15" t="s">
+      <c r="A131" s="14" t="s">
         <v>153</v>
       </c>
       <c r="B131"/>
@@ -10340,7 +10340,7 @@
       <c r="E131"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="15" t="s">
+      <c r="A132" s="14" t="s">
         <v>154</v>
       </c>
       <c r="B132"/>
@@ -10349,80 +10349,80 @@
       <c r="E132"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="15" t="s">
+      <c r="A133" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B133" s="16">
+      <c r="B133" s="15">
         <v>1</v>
       </c>
-      <c r="C133" s="16" t="s">
+      <c r="C133" s="15" t="s">
         <v>156</v>
       </c>
       <c r="D133"/>
-      <c r="E133" s="15" t="s">
+      <c r="E133" s="14" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="15" t="s">
+      <c r="A134" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B134" s="16">
+      <c r="B134" s="15">
         <v>1</v>
       </c>
-      <c r="C134" s="16" t="s">
+      <c r="C134" s="15" t="s">
         <v>159</v>
       </c>
       <c r="D134"/>
-      <c r="E134" s="15" t="s">
+      <c r="E134" s="14" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="15" t="s">
+      <c r="A135" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B135" s="16">
+      <c r="B135" s="15">
         <v>1</v>
       </c>
-      <c r="C135" s="16" t="s">
+      <c r="C135" s="15" t="s">
         <v>162</v>
       </c>
       <c r="D135"/>
-      <c r="E135" s="15" t="s">
+      <c r="E135" s="14" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="15" t="s">
+      <c r="A136" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B136" s="16">
+      <c r="B136" s="15">
         <v>1</v>
       </c>
-      <c r="C136" s="16" t="s">
+      <c r="C136" s="15" t="s">
         <v>165</v>
       </c>
       <c r="D136"/>
-      <c r="E136" s="15" t="s">
+      <c r="E136" s="14" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="15" t="s">
+      <c r="A137" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B137" s="16">
+      <c r="B137" s="15">
         <v>1</v>
       </c>
       <c r="C137"/>
       <c r="D137"/>
-      <c r="E137" s="15" t="s">
+      <c r="E137" s="14" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="15" t="s">
+      <c r="A138" s="14" t="s">
         <v>169</v>
       </c>
       <c r="B138"/>
@@ -10431,7 +10431,7 @@
       <c r="E138"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="15" t="s">
+      <c r="A139" s="14" t="s">
         <v>170</v>
       </c>
       <c r="B139"/>
@@ -10440,7 +10440,7 @@
       <c r="E139"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="15" t="s">
+      <c r="A140" s="14" t="s">
         <v>171</v>
       </c>
       <c r="B140"/>
@@ -10449,7 +10449,7 @@
       <c r="E140"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="15" t="s">
+      <c r="A141" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B141"/>
@@ -10458,7 +10458,7 @@
       <c r="E141"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="15" t="s">
+      <c r="A142" s="14" t="s">
         <v>173</v>
       </c>
       <c r="B142"/>
@@ -10467,7 +10467,7 @@
       <c r="E142"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="15" t="s">
+      <c r="A143" s="14" t="s">
         <v>174</v>
       </c>
       <c r="B143"/>
@@ -10476,7 +10476,7 @@
       <c r="E143"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="15" t="s">
+      <c r="A144" s="14" t="s">
         <v>175</v>
       </c>
       <c r="B144"/>
@@ -10485,7 +10485,7 @@
       <c r="E144"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="15" t="s">
+      <c r="A145" s="14" t="s">
         <v>176</v>
       </c>
       <c r="B145"/>
@@ -10494,7 +10494,7 @@
       <c r="E145"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="15" t="s">
+      <c r="A146" s="14" t="s">
         <v>177</v>
       </c>
       <c r="B146"/>
@@ -10503,7 +10503,7 @@
       <c r="E146"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="15" t="s">
+      <c r="A147" s="14" t="s">
         <v>178</v>
       </c>
       <c r="B147"/>
@@ -10512,7 +10512,7 @@
       <c r="E147"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="15" t="s">
+      <c r="A148" s="14" t="s">
         <v>179</v>
       </c>
       <c r="B148"/>
@@ -10521,7 +10521,7 @@
       <c r="E148"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="15" t="s">
+      <c r="A149" s="14" t="s">
         <v>180</v>
       </c>
       <c r="B149"/>
@@ -10530,7 +10530,7 @@
       <c r="E149"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="15" t="s">
+      <c r="A150" s="14" t="s">
         <v>181</v>
       </c>
       <c r="B150"/>
@@ -10539,7 +10539,7 @@
       <c r="E150"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="15" t="s">
+      <c r="A151" s="14" t="s">
         <v>182</v>
       </c>
       <c r="B151"/>
@@ -10548,7 +10548,7 @@
       <c r="E151"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="15" t="s">
+      <c r="A152" s="14" t="s">
         <v>183</v>
       </c>
       <c r="B152"/>
@@ -10557,7 +10557,7 @@
       <c r="E152"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="15" t="s">
+      <c r="A153" s="14" t="s">
         <v>184</v>
       </c>
       <c r="B153"/>
@@ -10566,7 +10566,7 @@
       <c r="E153"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="15" t="s">
+      <c r="A154" s="14" t="s">
         <v>185</v>
       </c>
       <c r="B154"/>
@@ -10575,7 +10575,7 @@
       <c r="E154"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="15" t="s">
+      <c r="A155" s="14" t="s">
         <v>186</v>
       </c>
       <c r="B155"/>
@@ -10584,7 +10584,7 @@
       <c r="E155"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="15" t="s">
+      <c r="A156" s="14" t="s">
         <v>187</v>
       </c>
       <c r="B156"/>
@@ -10593,7 +10593,7 @@
       <c r="E156"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="15" t="s">
+      <c r="A157" s="14" t="s">
         <v>188</v>
       </c>
       <c r="B157"/>
@@ -10602,7 +10602,7 @@
       <c r="E157"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="15" t="s">
+      <c r="A158" s="14" t="s">
         <v>189</v>
       </c>
       <c r="B158"/>
@@ -10611,7 +10611,7 @@
       <c r="E158"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="15" t="s">
+      <c r="A159" s="14" t="s">
         <v>190</v>
       </c>
       <c r="B159"/>
@@ -10620,7 +10620,7 @@
       <c r="E159"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="15" t="s">
+      <c r="A160" s="14" t="s">
         <v>191</v>
       </c>
       <c r="B160"/>
@@ -10629,97 +10629,97 @@
       <c r="E160"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="15" t="s">
+      <c r="A161" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="B161" s="16">
+      <c r="B161" s="15">
         <v>2</v>
       </c>
-      <c r="C161" s="16" t="s">
+      <c r="C161" s="15" t="s">
         <v>193</v>
       </c>
       <c r="D161"/>
-      <c r="E161" s="15" t="s">
+      <c r="E161" s="14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="15" t="s">
+      <c r="A162" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B162" s="16">
+      <c r="B162" s="15">
         <v>2</v>
       </c>
-      <c r="C162" s="16" t="s">
+      <c r="C162" s="15" t="s">
         <v>193</v>
       </c>
       <c r="D162"/>
-      <c r="E162" s="15" t="s">
+      <c r="E162" s="14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="15" t="s">
+      <c r="A163" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="B163" s="16">
+      <c r="B163" s="15">
         <v>2</v>
       </c>
-      <c r="C163" s="16" t="s">
+      <c r="C163" s="15" t="s">
         <v>193</v>
       </c>
       <c r="D163"/>
-      <c r="E163" s="15" t="s">
+      <c r="E163" s="14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="15" t="s">
+      <c r="A164" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="B164" s="16">
+      <c r="B164" s="15">
         <v>2</v>
       </c>
-      <c r="C164" s="16" t="s">
+      <c r="C164" s="15" t="s">
         <v>193</v>
       </c>
       <c r="D164"/>
-      <c r="E164" s="15" t="s">
+      <c r="E164" s="14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="15" t="s">
+      <c r="A165" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B165" s="16">
+      <c r="B165" s="15">
         <v>2</v>
       </c>
-      <c r="C165" s="16" t="s">
+      <c r="C165" s="15" t="s">
         <v>193</v>
       </c>
       <c r="D165"/>
-      <c r="E165" s="15" t="s">
+      <c r="E165" s="14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="15" t="s">
+      <c r="A166" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="B166" s="16">
+      <c r="B166" s="15">
         <v>8</v>
       </c>
-      <c r="C166" s="16" t="s">
+      <c r="C166" s="15" t="s">
         <v>193</v>
       </c>
       <c r="D166"/>
-      <c r="E166" s="15" t="s">
+      <c r="E166" s="14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="15" t="s">
+      <c r="A167" s="14" t="s">
         <v>200</v>
       </c>
       <c r="B167"/>
@@ -10728,7 +10728,7 @@
       <c r="E167"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="15" t="s">
+      <c r="A168" s="14" t="s">
         <v>201</v>
       </c>
       <c r="B168"/>
@@ -10737,7 +10737,7 @@
       <c r="E168"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="15" t="s">
+      <c r="A169" s="14" t="s">
         <v>202</v>
       </c>
       <c r="B169"/>
@@ -10746,7 +10746,7 @@
       <c r="E169"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="15" t="s">
+      <c r="A170" s="14" t="s">
         <v>203</v>
       </c>
       <c r="B170"/>
@@ -10755,7 +10755,7 @@
       <c r="E170"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="15" t="s">
+      <c r="A171" s="14" t="s">
         <v>204</v>
       </c>
       <c r="B171"/>
@@ -10764,7 +10764,7 @@
       <c r="E171"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="15" t="s">
+      <c r="A172" s="14" t="s">
         <v>205</v>
       </c>
       <c r="B172"/>
@@ -10773,7 +10773,7 @@
       <c r="E172"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="15" t="s">
+      <c r="A173" s="14" t="s">
         <v>206</v>
       </c>
       <c r="B173"/>
@@ -10782,7 +10782,7 @@
       <c r="E173"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="15" t="s">
+      <c r="A174" s="14" t="s">
         <v>207</v>
       </c>
       <c r="B174"/>
@@ -10791,7 +10791,7 @@
       <c r="E174"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="15" t="s">
+      <c r="A175" s="14" t="s">
         <v>208</v>
       </c>
       <c r="B175"/>
@@ -10800,7 +10800,7 @@
       <c r="E175"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="15" t="s">
+      <c r="A176" s="14" t="s">
         <v>209</v>
       </c>
       <c r="B176"/>
@@ -10809,7 +10809,7 @@
       <c r="E176"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="15" t="s">
+      <c r="A177" s="14" t="s">
         <v>210</v>
       </c>
       <c r="B177"/>
@@ -10818,7 +10818,7 @@
       <c r="E177"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="15" t="s">
+      <c r="A178" s="14" t="s">
         <v>211</v>
       </c>
       <c r="B178"/>
@@ -10827,7 +10827,7 @@
       <c r="E178"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="15" t="s">
+      <c r="A179" s="14" t="s">
         <v>212</v>
       </c>
       <c r="B179"/>
@@ -10836,7 +10836,7 @@
       <c r="E179"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="15" t="s">
+      <c r="A180" s="14" t="s">
         <v>213</v>
       </c>
       <c r="B180"/>
@@ -10845,7 +10845,7 @@
       <c r="E180"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="15" t="s">
+      <c r="A181" s="14" t="s">
         <v>214</v>
       </c>
       <c r="B181"/>
@@ -10854,185 +10854,185 @@
       <c r="E181"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="15" t="s">
+      <c r="A182" s="14" t="s">
         <v>215</v>
       </c>
       <c r="B182"/>
       <c r="C182"/>
       <c r="D182"/>
-      <c r="E182" s="15" t="s">
+      <c r="E182" s="14" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="15" t="s">
+      <c r="A183" s="14" t="s">
         <v>216</v>
       </c>
       <c r="B183"/>
       <c r="C183"/>
       <c r="D183"/>
-      <c r="E183" s="15" t="s">
+      <c r="E183" s="14" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="15" t="s">
+      <c r="A184" s="14" t="s">
         <v>217</v>
       </c>
       <c r="B184"/>
       <c r="C184"/>
       <c r="D184"/>
-      <c r="E184" s="15" t="s">
+      <c r="E184" s="14" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="15" t="s">
+      <c r="A185" s="14" t="s">
         <v>218</v>
       </c>
       <c r="B185"/>
       <c r="C185"/>
       <c r="D185"/>
-      <c r="E185" s="15" t="s">
+      <c r="E185" s="14" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="15" t="s">
+      <c r="A186" s="14" t="s">
         <v>219</v>
       </c>
       <c r="B186"/>
       <c r="C186"/>
       <c r="D186"/>
-      <c r="E186" s="15" t="s">
+      <c r="E186" s="14" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="15" t="s">
+      <c r="A187" s="14" t="s">
         <v>220</v>
       </c>
       <c r="B187"/>
       <c r="C187"/>
       <c r="D187"/>
-      <c r="E187" s="15" t="s">
+      <c r="E187" s="14" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="15" t="s">
+      <c r="A188" s="14" t="s">
         <v>221</v>
       </c>
       <c r="B188"/>
       <c r="C188"/>
       <c r="D188"/>
-      <c r="E188" s="15" t="s">
+      <c r="E188" s="14" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="15" t="s">
+      <c r="A189" s="14" t="s">
         <v>222</v>
       </c>
       <c r="B189"/>
       <c r="C189"/>
       <c r="D189"/>
-      <c r="E189" s="15" t="s">
+      <c r="E189" s="14" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="15" t="s">
+      <c r="A190" s="14" t="s">
         <v>223</v>
       </c>
       <c r="B190"/>
       <c r="C190"/>
       <c r="D190"/>
-      <c r="E190" s="15" t="s">
+      <c r="E190" s="14" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="15" t="s">
+      <c r="A191" s="14" t="s">
         <v>224</v>
       </c>
       <c r="B191"/>
       <c r="C191"/>
       <c r="D191"/>
-      <c r="E191" s="15" t="s">
+      <c r="E191" s="14" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="15" t="s">
+      <c r="A192" s="14" t="s">
         <v>225</v>
       </c>
       <c r="B192"/>
       <c r="C192"/>
       <c r="D192"/>
-      <c r="E192" s="15" t="s">
+      <c r="E192" s="14" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="15" t="s">
+      <c r="A193" s="14" t="s">
         <v>226</v>
       </c>
       <c r="B193"/>
       <c r="C193"/>
       <c r="D193"/>
-      <c r="E193" s="15" t="s">
+      <c r="E193" s="14" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="15" t="s">
+      <c r="A194" s="14" t="s">
         <v>227</v>
       </c>
       <c r="B194"/>
       <c r="C194"/>
       <c r="D194"/>
-      <c r="E194" s="15" t="s">
+      <c r="E194" s="14" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="15" t="s">
+      <c r="A195" s="14" t="s">
         <v>228</v>
       </c>
       <c r="B195"/>
       <c r="C195"/>
       <c r="D195"/>
-      <c r="E195" s="15" t="s">
+      <c r="E195" s="14" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="15" t="s">
+      <c r="A196" s="14" t="s">
         <v>229</v>
       </c>
       <c r="B196"/>
       <c r="C196"/>
       <c r="D196"/>
-      <c r="E196" s="15" t="s">
+      <c r="E196" s="14" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="15" t="s">
+      <c r="A197" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="B197" s="16">
+      <c r="B197" s="15">
         <v>6</v>
       </c>
       <c r="C197"/>
       <c r="D197"/>
-      <c r="E197" s="15" t="e">
+      <c r="E197" s="14" t="e">
         <v>#NAME?</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="15" t="s">
+      <c r="A198" s="14" t="s">
         <v>243</v>
       </c>
       <c r="B198"/>
@@ -11041,20 +11041,20 @@
       <c r="E198"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="15" t="s">
+      <c r="A199" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="B199" s="16">
+      <c r="B199" s="15">
         <v>6</v>
       </c>
       <c r="C199"/>
       <c r="D199"/>
-      <c r="E199" s="15" t="s">
+      <c r="E199" s="14" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="15" t="s">
+      <c r="A200" s="14" t="s">
         <v>246</v>
       </c>
       <c r="B200"/>
@@ -11063,20 +11063,20 @@
       <c r="E200"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="15" t="s">
+      <c r="A201" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="B201" s="16">
+      <c r="B201" s="15">
         <v>6</v>
       </c>
       <c r="C201"/>
       <c r="D201"/>
-      <c r="E201" s="15" t="s">
+      <c r="E201" s="14" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="15" t="s">
+      <c r="A202" s="14" t="s">
         <v>249</v>
       </c>
       <c r="B202"/>
@@ -11085,7 +11085,7 @@
       <c r="E202"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="15" t="s">
+      <c r="A203" s="14" t="s">
         <v>250</v>
       </c>
       <c r="B203"/>
@@ -11094,7 +11094,7 @@
       <c r="E203"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="15" t="s">
+      <c r="A204" s="14" t="s">
         <v>251</v>
       </c>
       <c r="B204"/>
@@ -11103,7 +11103,7 @@
       <c r="E204"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="15" t="s">
+      <c r="A205" s="14" t="s">
         <v>252</v>
       </c>
       <c r="B205"/>
@@ -11112,7 +11112,7 @@
       <c r="E205"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="15" t="s">
+      <c r="A206" s="14" t="s">
         <v>253</v>
       </c>
       <c r="B206"/>
@@ -11121,7 +11121,7 @@
       <c r="E206"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="15" t="s">
+      <c r="A207" s="14" t="s">
         <v>254</v>
       </c>
       <c r="B207"/>
@@ -11130,7 +11130,7 @@
       <c r="E207"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="15" t="s">
+      <c r="A208" s="14" t="s">
         <v>255</v>
       </c>
       <c r="B208"/>
@@ -11139,7 +11139,7 @@
       <c r="E208"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="15" t="s">
+      <c r="A209" s="14" t="s">
         <v>256</v>
       </c>
       <c r="B209"/>
@@ -11148,7 +11148,7 @@
       <c r="E209"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="15" t="s">
+      <c r="A210" s="14" t="s">
         <v>257</v>
       </c>
       <c r="B210"/>
@@ -11157,7 +11157,7 @@
       <c r="E210"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="15" t="s">
+      <c r="A211" s="14" t="s">
         <v>258</v>
       </c>
       <c r="B211"/>
@@ -11166,7 +11166,7 @@
       <c r="E211"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="15" t="s">
+      <c r="A212" s="14" t="s">
         <v>259</v>
       </c>
       <c r="B212"/>
@@ -11175,7 +11175,7 @@
       <c r="E212"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="15" t="s">
+      <c r="A213" s="14" t="s">
         <v>260</v>
       </c>
       <c r="B213"/>
@@ -11184,7 +11184,7 @@
       <c r="E213"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="15" t="s">
+      <c r="A214" s="14" t="s">
         <v>261</v>
       </c>
       <c r="B214"/>
@@ -11193,7 +11193,7 @@
       <c r="E214"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="15" t="s">
+      <c r="A215" s="14" t="s">
         <v>262</v>
       </c>
       <c r="B215"/>
@@ -11202,7 +11202,7 @@
       <c r="E215"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="15" t="s">
+      <c r="A216" s="14" t="s">
         <v>263</v>
       </c>
       <c r="B216"/>
@@ -11211,7 +11211,7 @@
       <c r="E216"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="15" t="s">
+      <c r="A217" s="14" t="s">
         <v>264</v>
       </c>
       <c r="B217"/>
@@ -11220,7 +11220,7 @@
       <c r="E217"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="15" t="s">
+      <c r="A218" s="14" t="s">
         <v>265</v>
       </c>
       <c r="B218"/>
@@ -11229,7 +11229,7 @@
       <c r="E218"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="15" t="s">
+      <c r="A219" s="14" t="s">
         <v>266</v>
       </c>
       <c r="B219"/>
@@ -11238,7 +11238,7 @@
       <c r="E219"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="15" t="s">
+      <c r="A220" s="14" t="s">
         <v>267</v>
       </c>
       <c r="B220"/>
@@ -11247,7 +11247,7 @@
       <c r="E220"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="15" t="s">
+      <c r="A221" s="14" t="s">
         <v>268</v>
       </c>
       <c r="B221"/>
@@ -11256,7 +11256,7 @@
       <c r="E221"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="15" t="s">
+      <c r="A222" s="14" t="s">
         <v>269</v>
       </c>
       <c r="B222"/>
@@ -11265,7 +11265,7 @@
       <c r="E222"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="15" t="s">
+      <c r="A223" s="14" t="s">
         <v>270</v>
       </c>
       <c r="B223"/>
@@ -11274,7 +11274,7 @@
       <c r="E223"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="15" t="s">
+      <c r="A224" s="14" t="s">
         <v>271</v>
       </c>
       <c r="B224"/>
@@ -11283,7 +11283,7 @@
       <c r="E224"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="15" t="s">
+      <c r="A225" s="14" t="s">
         <v>272</v>
       </c>
       <c r="B225"/>
@@ -11292,7 +11292,7 @@
       <c r="E225"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="15" t="s">
+      <c r="A226" s="14" t="s">
         <v>273</v>
       </c>
       <c r="B226"/>
@@ -11301,7 +11301,7 @@
       <c r="E226"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="15" t="s">
+      <c r="A227" s="14" t="s">
         <v>274</v>
       </c>
       <c r="B227"/>
@@ -11310,7 +11310,7 @@
       <c r="E227"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="15" t="s">
+      <c r="A228" s="14" t="s">
         <v>275</v>
       </c>
       <c r="B228"/>
@@ -11319,7 +11319,7 @@
       <c r="E228"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="15" t="s">
+      <c r="A229" s="14" t="s">
         <v>276</v>
       </c>
       <c r="B229"/>
@@ -11328,7 +11328,7 @@
       <c r="E229"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="15" t="s">
+      <c r="A230" s="14" t="s">
         <v>277</v>
       </c>
       <c r="B230"/>
@@ -11337,7 +11337,7 @@
       <c r="E230"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="15" t="s">
+      <c r="A231" s="14" t="s">
         <v>278</v>
       </c>
       <c r="B231"/>
@@ -11346,7 +11346,7 @@
       <c r="E231"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="15" t="s">
+      <c r="A232" s="14" t="s">
         <v>279</v>
       </c>
       <c r="B232"/>
@@ -11355,7 +11355,7 @@
       <c r="E232"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="15" t="s">
+      <c r="A233" s="14" t="s">
         <v>280</v>
       </c>
       <c r="B233"/>
@@ -11364,7 +11364,7 @@
       <c r="E233"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="15" t="s">
+      <c r="A234" s="14" t="s">
         <v>281</v>
       </c>
       <c r="B234"/>
@@ -11373,7 +11373,7 @@
       <c r="E234"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="15" t="s">
+      <c r="A235" s="14" t="s">
         <v>282</v>
       </c>
       <c r="B235"/>
@@ -11382,7 +11382,7 @@
       <c r="E235"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="15" t="s">
+      <c r="A236" s="14" t="s">
         <v>283</v>
       </c>
       <c r="B236"/>
@@ -11391,7 +11391,7 @@
       <c r="E236"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="15" t="s">
+      <c r="A237" s="14" t="s">
         <v>284</v>
       </c>
       <c r="B237"/>
@@ -11400,7 +11400,7 @@
       <c r="E237"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="15" t="s">
+      <c r="A238" s="14" t="s">
         <v>285</v>
       </c>
       <c r="B238"/>
@@ -11409,7 +11409,7 @@
       <c r="E238"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="15" t="s">
+      <c r="A239" s="14" t="s">
         <v>286</v>
       </c>
       <c r="B239"/>
@@ -11418,7 +11418,7 @@
       <c r="E239"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="15" t="s">
+      <c r="A240" s="14" t="s">
         <v>287</v>
       </c>
       <c r="B240"/>
@@ -11427,7 +11427,7 @@
       <c r="E240"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="15" t="s">
+      <c r="A241" s="14" t="s">
         <v>288</v>
       </c>
       <c r="B241"/>
@@ -11436,7 +11436,7 @@
       <c r="E241"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="15" t="s">
+      <c r="A242" s="14" t="s">
         <v>289</v>
       </c>
       <c r="B242"/>
@@ -11445,7 +11445,7 @@
       <c r="E242"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="15" t="s">
+      <c r="A243" s="14" t="s">
         <v>290</v>
       </c>
       <c r="B243"/>
@@ -11454,7 +11454,7 @@
       <c r="E243"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="15" t="s">
+      <c r="A244" s="14" t="s">
         <v>291</v>
       </c>
       <c r="B244"/>
@@ -11463,7 +11463,7 @@
       <c r="E244"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="15" t="s">
+      <c r="A245" s="14" t="s">
         <v>292</v>
       </c>
       <c r="B245"/>
@@ -11472,7 +11472,7 @@
       <c r="E245"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="15" t="s">
+      <c r="A246" s="14" t="s">
         <v>293</v>
       </c>
       <c r="B246"/>
@@ -11481,7 +11481,7 @@
       <c r="E246"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="15" t="s">
+      <c r="A247" s="14" t="s">
         <v>294</v>
       </c>
       <c r="B247"/>
@@ -11490,7 +11490,7 @@
       <c r="E247"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="15" t="s">
+      <c r="A248" s="14" t="s">
         <v>295</v>
       </c>
       <c r="B248"/>
@@ -11499,7 +11499,7 @@
       <c r="E248"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="15" t="s">
+      <c r="A249" s="14" t="s">
         <v>296</v>
       </c>
       <c r="B249"/>
@@ -11508,7 +11508,7 @@
       <c r="E249"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="15" t="s">
+      <c r="A250" s="14" t="s">
         <v>297</v>
       </c>
       <c r="B250"/>
@@ -11517,7 +11517,7 @@
       <c r="E250"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="15" t="s">
+      <c r="A251" s="14" t="s">
         <v>298</v>
       </c>
       <c r="B251"/>
@@ -11526,7 +11526,7 @@
       <c r="E251"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="15" t="s">
+      <c r="A252" s="14" t="s">
         <v>299</v>
       </c>
       <c r="B252"/>
@@ -11535,7 +11535,7 @@
       <c r="E252"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="15" t="s">
+      <c r="A253" s="14" t="s">
         <v>300</v>
       </c>
       <c r="B253"/>
@@ -11544,7 +11544,7 @@
       <c r="E253"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="15" t="s">
+      <c r="A254" s="14" t="s">
         <v>301</v>
       </c>
       <c r="B254"/>
@@ -11553,7 +11553,7 @@
       <c r="E254"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="15" t="s">
+      <c r="A255" s="14" t="s">
         <v>302</v>
       </c>
       <c r="B255"/>
@@ -11562,7 +11562,7 @@
       <c r="E255"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="15" t="s">
+      <c r="A256" s="14" t="s">
         <v>303</v>
       </c>
       <c r="B256"/>
@@ -11571,7 +11571,7 @@
       <c r="E256"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="15" t="s">
+      <c r="A257" s="14" t="s">
         <v>304</v>
       </c>
       <c r="B257"/>
@@ -11580,7 +11580,7 @@
       <c r="E257"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="15" t="s">
+      <c r="A258" s="14" t="s">
         <v>305</v>
       </c>
       <c r="B258"/>
@@ -11589,7 +11589,7 @@
       <c r="E258"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="15" t="s">
+      <c r="A259" s="14" t="s">
         <v>306</v>
       </c>
       <c r="B259"/>
@@ -11598,7 +11598,7 @@
       <c r="E259"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="15" t="s">
+      <c r="A260" s="14" t="s">
         <v>307</v>
       </c>
       <c r="B260"/>
@@ -11607,7 +11607,7 @@
       <c r="E260"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="15" t="s">
+      <c r="A261" s="14" t="s">
         <v>308</v>
       </c>
       <c r="B261"/>
@@ -11616,7 +11616,7 @@
       <c r="E261"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="15" t="s">
+      <c r="A262" s="14" t="s">
         <v>309</v>
       </c>
       <c r="B262"/>
@@ -11625,7 +11625,7 @@
       <c r="E262"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="15" t="s">
+      <c r="A263" s="14" t="s">
         <v>310</v>
       </c>
       <c r="B263"/>
@@ -11634,7 +11634,7 @@
       <c r="E263"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="15" t="s">
+      <c r="A264" s="14" t="s">
         <v>311</v>
       </c>
       <c r="B264"/>
@@ -11643,7 +11643,7 @@
       <c r="E264"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="15" t="s">
+      <c r="A265" s="14" t="s">
         <v>312</v>
       </c>
       <c r="B265"/>
@@ -11652,7 +11652,7 @@
       <c r="E265"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="15" t="s">
+      <c r="A266" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B266"/>
@@ -11661,7 +11661,7 @@
       <c r="E266"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="15" t="s">
+      <c r="A267" s="14" t="s">
         <v>314</v>
       </c>
       <c r="B267"/>
@@ -11670,7 +11670,7 @@
       <c r="E267"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="15" t="s">
+      <c r="A268" s="14" t="s">
         <v>315</v>
       </c>
       <c r="B268"/>
@@ -11679,7 +11679,7 @@
       <c r="E268"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="15" t="s">
+      <c r="A269" s="14" t="s">
         <v>316</v>
       </c>
       <c r="B269"/>
@@ -11688,7 +11688,7 @@
       <c r="E269"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="15" t="s">
+      <c r="A270" s="14" t="s">
         <v>317</v>
       </c>
       <c r="B270"/>
@@ -11697,7 +11697,7 @@
       <c r="E270"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="15" t="s">
+      <c r="A271" s="14" t="s">
         <v>318</v>
       </c>
       <c r="B271"/>
@@ -11706,7 +11706,7 @@
       <c r="E271"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="15" t="s">
+      <c r="A272" s="14" t="s">
         <v>319</v>
       </c>
       <c r="B272"/>
@@ -11715,7 +11715,7 @@
       <c r="E272"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="15" t="s">
+      <c r="A273" s="14" t="s">
         <v>320</v>
       </c>
       <c r="B273"/>
@@ -11724,7 +11724,7 @@
       <c r="E273"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" s="15" t="s">
+      <c r="A274" s="14" t="s">
         <v>321</v>
       </c>
       <c r="B274"/>
@@ -11733,7 +11733,7 @@
       <c r="E274"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" s="15" t="s">
+      <c r="A275" s="14" t="s">
         <v>322</v>
       </c>
       <c r="B275"/>
@@ -11742,7 +11742,7 @@
       <c r="E275"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="15" t="s">
+      <c r="A276" s="14" t="s">
         <v>323</v>
       </c>
       <c r="B276"/>
@@ -11751,7 +11751,7 @@
       <c r="E276"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" s="15" t="s">
+      <c r="A277" s="14" t="s">
         <v>324</v>
       </c>
       <c r="B277"/>
@@ -11760,7 +11760,7 @@
       <c r="E277"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" s="15" t="s">
+      <c r="A278" s="14" t="s">
         <v>325</v>
       </c>
       <c r="B278"/>
@@ -11769,7 +11769,7 @@
       <c r="E278"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="15" t="s">
+      <c r="A279" s="14" t="s">
         <v>326</v>
       </c>
       <c r="B279"/>
@@ -11778,7 +11778,7 @@
       <c r="E279"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="15" t="s">
+      <c r="A280" s="14" t="s">
         <v>327</v>
       </c>
       <c r="B280"/>
@@ -11787,7 +11787,7 @@
       <c r="E280"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="15" t="s">
+      <c r="A281" s="14" t="s">
         <v>328</v>
       </c>
       <c r="B281"/>
@@ -11796,7 +11796,7 @@
       <c r="E281"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="15" t="s">
+      <c r="A282" s="14" t="s">
         <v>329</v>
       </c>
       <c r="B282"/>
@@ -11805,7 +11805,7 @@
       <c r="E282"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" s="15" t="s">
+      <c r="A283" s="14" t="s">
         <v>330</v>
       </c>
       <c r="B283"/>
@@ -11814,7 +11814,7 @@
       <c r="E283"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="15" t="s">
+      <c r="A284" s="14" t="s">
         <v>331</v>
       </c>
       <c r="B284"/>
@@ -11823,7 +11823,7 @@
       <c r="E284"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="15" t="s">
+      <c r="A285" s="14" t="s">
         <v>332</v>
       </c>
       <c r="B285"/>
@@ -11832,7 +11832,7 @@
       <c r="E285"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="15" t="s">
+      <c r="A286" s="14" t="s">
         <v>333</v>
       </c>
       <c r="B286"/>
@@ -11841,7 +11841,7 @@
       <c r="E286"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="15" t="s">
+      <c r="A287" s="14" t="s">
         <v>334</v>
       </c>
       <c r="B287"/>
@@ -11850,7 +11850,7 @@
       <c r="E287"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="15" t="s">
+      <c r="A288" s="14" t="s">
         <v>335</v>
       </c>
       <c r="B288"/>
@@ -11859,7 +11859,7 @@
       <c r="E288"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="15" t="s">
+      <c r="A289" s="14" t="s">
         <v>336</v>
       </c>
       <c r="B289"/>
@@ -11868,7 +11868,7 @@
       <c r="E289"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="15" t="s">
+      <c r="A290" s="14" t="s">
         <v>337</v>
       </c>
       <c r="B290"/>
@@ -11877,7 +11877,7 @@
       <c r="E290"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="15" t="s">
+      <c r="A291" s="14" t="s">
         <v>338</v>
       </c>
       <c r="B291"/>
@@ -11886,7 +11886,7 @@
       <c r="E291"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="15" t="s">
+      <c r="A292" s="14" t="s">
         <v>339</v>
       </c>
       <c r="B292"/>
@@ -11895,7 +11895,7 @@
       <c r="E292"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="15" t="s">
+      <c r="A293" s="14" t="s">
         <v>340</v>
       </c>
       <c r="B293"/>
@@ -11904,7 +11904,7 @@
       <c r="E293"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="15" t="s">
+      <c r="A294" s="14" t="s">
         <v>341</v>
       </c>
       <c r="B294"/>
@@ -11913,7 +11913,7 @@
       <c r="E294"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="15" t="s">
+      <c r="A295" s="14" t="s">
         <v>342</v>
       </c>
       <c r="B295"/>
@@ -11922,7 +11922,7 @@
       <c r="E295"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="15" t="s">
+      <c r="A296" s="14" t="s">
         <v>343</v>
       </c>
       <c r="B296"/>
@@ -11931,7 +11931,7 @@
       <c r="E296"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="15" t="s">
+      <c r="A297" s="14" t="s">
         <v>344</v>
       </c>
       <c r="B297"/>
@@ -11940,7 +11940,7 @@
       <c r="E297"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="15" t="s">
+      <c r="A298" s="14" t="s">
         <v>345</v>
       </c>
       <c r="B298"/>
@@ -11949,7 +11949,7 @@
       <c r="E298"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="15" t="s">
+      <c r="A299" s="14" t="s">
         <v>346</v>
       </c>
       <c r="B299"/>
@@ -11958,7 +11958,7 @@
       <c r="E299"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="15" t="s">
+      <c r="A300" s="14" t="s">
         <v>347</v>
       </c>
       <c r="B300"/>
@@ -11967,7 +11967,7 @@
       <c r="E300"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="15" t="s">
+      <c r="A301" s="14" t="s">
         <v>348</v>
       </c>
       <c r="B301"/>
@@ -11976,7 +11976,7 @@
       <c r="E301"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="15" t="s">
+      <c r="A302" s="14" t="s">
         <v>349</v>
       </c>
       <c r="B302"/>
@@ -11985,7 +11985,7 @@
       <c r="E302"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="15" t="s">
+      <c r="A303" s="14" t="s">
         <v>350</v>
       </c>
       <c r="B303"/>
@@ -11994,7 +11994,7 @@
       <c r="E303"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="15" t="s">
+      <c r="A304" s="14" t="s">
         <v>351</v>
       </c>
       <c r="B304"/>
@@ -12003,7 +12003,7 @@
       <c r="E304"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305" s="15" t="s">
+      <c r="A305" s="14" t="s">
         <v>352</v>
       </c>
       <c r="B305"/>
@@ -12012,7 +12012,7 @@
       <c r="E305"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" s="15" t="s">
+      <c r="A306" s="14" t="s">
         <v>353</v>
       </c>
       <c r="B306"/>
@@ -12021,7 +12021,7 @@
       <c r="E306"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="15" t="s">
+      <c r="A307" s="14" t="s">
         <v>354</v>
       </c>
       <c r="B307"/>
@@ -12030,7 +12030,7 @@
       <c r="E307"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308" s="15" t="s">
+      <c r="A308" s="14" t="s">
         <v>355</v>
       </c>
       <c r="B308"/>
@@ -12039,7 +12039,7 @@
       <c r="E308"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="15" t="s">
+      <c r="A309" s="14" t="s">
         <v>356</v>
       </c>
       <c r="B309"/>
@@ -12048,7 +12048,7 @@
       <c r="E309"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="15" t="s">
+      <c r="A310" s="14" t="s">
         <v>357</v>
       </c>
       <c r="B310"/>
@@ -12057,7 +12057,7 @@
       <c r="E310"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="15" t="s">
+      <c r="A311" s="14" t="s">
         <v>358</v>
       </c>
       <c r="B311"/>
@@ -12066,7 +12066,7 @@
       <c r="E311"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="15" t="s">
+      <c r="A312" s="14" t="s">
         <v>359</v>
       </c>
       <c r="B312"/>
@@ -12075,7 +12075,7 @@
       <c r="E312"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="15" t="s">
+      <c r="A313" s="14" t="s">
         <v>360</v>
       </c>
       <c r="B313"/>
@@ -12084,7 +12084,7 @@
       <c r="E313"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="15" t="s">
+      <c r="A314" s="14" t="s">
         <v>361</v>
       </c>
       <c r="B314"/>
@@ -12093,7 +12093,7 @@
       <c r="E314"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="15" t="s">
+      <c r="A315" s="14" t="s">
         <v>362</v>
       </c>
       <c r="B315"/>
@@ -12102,7 +12102,7 @@
       <c r="E315"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" s="15" t="s">
+      <c r="A316" s="14" t="s">
         <v>363</v>
       </c>
       <c r="B316"/>
@@ -12111,7 +12111,7 @@
       <c r="E316"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="15" t="s">
+      <c r="A317" s="14" t="s">
         <v>364</v>
       </c>
       <c r="B317"/>
@@ -12120,7 +12120,7 @@
       <c r="E317"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="15" t="s">
+      <c r="A318" s="14" t="s">
         <v>365</v>
       </c>
       <c r="B318"/>
@@ -12129,7 +12129,7 @@
       <c r="E318"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="15" t="s">
+      <c r="A319" s="14" t="s">
         <v>366</v>
       </c>
       <c r="B319"/>
@@ -12138,7 +12138,7 @@
       <c r="E319"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="15" t="s">
+      <c r="A320" s="14" t="s">
         <v>367</v>
       </c>
       <c r="B320"/>
@@ -12147,7 +12147,7 @@
       <c r="E320"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="15" t="s">
+      <c r="A321" s="14" t="s">
         <v>368</v>
       </c>
       <c r="B321"/>
@@ -12156,7 +12156,7 @@
       <c r="E321"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="15" t="s">
+      <c r="A322" s="14" t="s">
         <v>369</v>
       </c>
       <c r="B322"/>
@@ -12165,7 +12165,7 @@
       <c r="E322"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="15" t="s">
+      <c r="A323" s="14" t="s">
         <v>370</v>
       </c>
       <c r="B323"/>
@@ -12174,7 +12174,7 @@
       <c r="E323"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="15" t="s">
+      <c r="A324" s="14" t="s">
         <v>371</v>
       </c>
       <c r="B324"/>
@@ -12183,7 +12183,7 @@
       <c r="E324"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="15" t="s">
+      <c r="A325" s="14" t="s">
         <v>372</v>
       </c>
       <c r="B325"/>
@@ -12192,7 +12192,7 @@
       <c r="E325"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="15" t="s">
+      <c r="A326" s="14" t="s">
         <v>373</v>
       </c>
       <c r="B326"/>
@@ -12201,7 +12201,7 @@
       <c r="E326"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="15" t="s">
+      <c r="A327" s="14" t="s">
         <v>374</v>
       </c>
       <c r="B327"/>
@@ -12210,7 +12210,7 @@
       <c r="E327"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="15" t="s">
+      <c r="A328" s="14" t="s">
         <v>375</v>
       </c>
       <c r="B328"/>
@@ -12219,7 +12219,7 @@
       <c r="E328"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" s="15" t="s">
+      <c r="A329" s="14" t="s">
         <v>376</v>
       </c>
       <c r="B329"/>
@@ -12228,7 +12228,7 @@
       <c r="E329"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330" s="15" t="s">
+      <c r="A330" s="14" t="s">
         <v>377</v>
       </c>
       <c r="B330"/>
@@ -12237,7 +12237,7 @@
       <c r="E330"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" s="15" t="s">
+      <c r="A331" s="14" t="s">
         <v>378</v>
       </c>
       <c r="B331"/>
@@ -12246,7 +12246,7 @@
       <c r="E331"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332" s="15" t="s">
+      <c r="A332" s="14" t="s">
         <v>379</v>
       </c>
       <c r="B332"/>
@@ -12255,7 +12255,7 @@
       <c r="E332"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333" s="15" t="s">
+      <c r="A333" s="14" t="s">
         <v>380</v>
       </c>
       <c r="B333"/>
@@ -12264,7 +12264,7 @@
       <c r="E333"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" s="15" t="s">
+      <c r="A334" s="14" t="s">
         <v>381</v>
       </c>
       <c r="B334"/>
@@ -12273,7 +12273,7 @@
       <c r="E334"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" s="15" t="s">
+      <c r="A335" s="14" t="s">
         <v>382</v>
       </c>
       <c r="B335"/>
@@ -12282,7 +12282,7 @@
       <c r="E335"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" s="15" t="s">
+      <c r="A336" s="14" t="s">
         <v>383</v>
       </c>
       <c r="B336"/>
@@ -12291,7 +12291,7 @@
       <c r="E336"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" s="15" t="s">
+      <c r="A337" s="14" t="s">
         <v>384</v>
       </c>
       <c r="B337"/>
@@ -12300,7 +12300,7 @@
       <c r="E337"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" s="15" t="s">
+      <c r="A338" s="14" t="s">
         <v>385</v>
       </c>
       <c r="B338"/>
@@ -12309,7 +12309,7 @@
       <c r="E338"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" s="15" t="s">
+      <c r="A339" s="14" t="s">
         <v>386</v>
       </c>
       <c r="B339"/>
@@ -12318,7 +12318,7 @@
       <c r="E339"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340" s="15" t="s">
+      <c r="A340" s="14" t="s">
         <v>387</v>
       </c>
       <c r="B340"/>
@@ -12327,7 +12327,7 @@
       <c r="E340"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341" s="15" t="s">
+      <c r="A341" s="14" t="s">
         <v>388</v>
       </c>
       <c r="B341"/>
@@ -12336,7 +12336,7 @@
       <c r="E341"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342" s="15" t="s">
+      <c r="A342" s="14" t="s">
         <v>389</v>
       </c>
       <c r="B342"/>
@@ -12345,7 +12345,7 @@
       <c r="E342"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" s="15" t="s">
+      <c r="A343" s="14" t="s">
         <v>390</v>
       </c>
       <c r="B343"/>
@@ -12354,7 +12354,7 @@
       <c r="E343"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" s="15" t="s">
+      <c r="A344" s="14" t="s">
         <v>391</v>
       </c>
       <c r="B344"/>
@@ -12363,7 +12363,7 @@
       <c r="E344"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="15" t="s">
+      <c r="A345" s="14" t="s">
         <v>392</v>
       </c>
       <c r="B345"/>
@@ -12372,7 +12372,7 @@
       <c r="E345"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" s="15" t="s">
+      <c r="A346" s="14" t="s">
         <v>393</v>
       </c>
       <c r="B346"/>
@@ -12381,21 +12381,21 @@
       <c r="E346"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" s="15" t="s">
+      <c r="A347" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="B347" s="16">
+      <c r="B347" s="15">
         <v>1</v>
       </c>
       <c r="C347"/>
       <c r="D347"/>
-      <c r="E347" s="15" t="s">
+      <c r="E347" s="14" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348"/>
-      <c r="B348" s="16">
+      <c r="B348" s="15">
         <v>3</v>
       </c>
       <c r="C348"/>
@@ -12403,10 +12403,10 @@
       <c r="E348"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A349" s="15" t="s">
+      <c r="A349" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="B349" s="16">
+      <c r="B349" s="15">
         <v>4</v>
       </c>
       <c r="C349"/>
@@ -12414,10 +12414,10 @@
       <c r="E349"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" s="15" t="s">
+      <c r="A350" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="B350" s="16">
+      <c r="B350" s="15">
         <v>4</v>
       </c>
       <c r="C350"/>
@@ -12425,10 +12425,10 @@
       <c r="E350"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" s="15" t="s">
+      <c r="A351" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="B351" s="16">
+      <c r="B351" s="15">
         <v>4</v>
       </c>
       <c r="C351"/>
@@ -12436,10 +12436,10 @@
       <c r="E351"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" s="15" t="s">
+      <c r="A352" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="B352" s="16">
+      <c r="B352" s="15">
         <v>4</v>
       </c>
       <c r="C352"/>
@@ -12447,7 +12447,7 @@
       <c r="E352"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" s="15" t="s">
+      <c r="A353" s="14" t="s">
         <v>401</v>
       </c>
       <c r="B353"/>
@@ -12456,7 +12456,7 @@
       <c r="E353"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="15" t="s">
+      <c r="A354" s="14" t="s">
         <v>402</v>
       </c>
       <c r="B354"/>
@@ -12465,42 +12465,46 @@
       <c r="E354"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="15" t="s">
+      <c r="A355" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="B355"/>
+      <c r="B355" s="15">
+        <v>1</v>
+      </c>
       <c r="C355"/>
       <c r="D355"/>
-      <c r="E355"/>
+      <c r="E355" t="s">
+        <v>1061</v>
+      </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="15" t="s">
+      <c r="A356" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="B356" s="16">
+      <c r="B356" s="15">
         <v>1</v>
       </c>
       <c r="C356"/>
       <c r="D356"/>
-      <c r="E356" s="15" t="s">
+      <c r="E356" s="14" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="15" t="s">
+      <c r="A357" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="B357" s="16">
+      <c r="B357" s="15">
         <v>1</v>
       </c>
       <c r="C357"/>
       <c r="D357"/>
-      <c r="E357" s="15" t="s">
+      <c r="E357" s="14" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" s="15" t="s">
+      <c r="A358" s="14" t="s">
         <v>407</v>
       </c>
       <c r="B358"/>
@@ -12509,7 +12513,7 @@
       <c r="E358"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" s="15" t="s">
+      <c r="A359" s="14" t="s">
         <v>408</v>
       </c>
       <c r="B359"/>
@@ -12518,7 +12522,7 @@
       <c r="E359"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="15" t="s">
+      <c r="A360" s="14" t="s">
         <v>409</v>
       </c>
       <c r="B360"/>
@@ -12527,20 +12531,20 @@
       <c r="E360"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="15" t="s">
+      <c r="A361" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="B361" s="16">
+      <c r="B361" s="15">
         <v>1</v>
       </c>
       <c r="C361"/>
       <c r="D361"/>
-      <c r="E361" s="15" t="s">
+      <c r="E361" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" s="15" t="s">
+      <c r="A362" s="14" t="s">
         <v>412</v>
       </c>
       <c r="B362"/>
@@ -12549,7 +12553,7 @@
       <c r="E362"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="15" t="s">
+      <c r="A363" s="14" t="s">
         <v>413</v>
       </c>
       <c r="B363"/>
@@ -12558,7 +12562,7 @@
       <c r="E363"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" s="15" t="s">
+      <c r="A364" s="14" t="s">
         <v>414</v>
       </c>
       <c r="B364"/>
@@ -12567,7 +12571,7 @@
       <c r="E364"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="15" t="s">
+      <c r="A365" s="14" t="s">
         <v>415</v>
       </c>
       <c r="B365"/>
@@ -12576,7 +12580,7 @@
       <c r="E365"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" s="15" t="s">
+      <c r="A366" s="14" t="s">
         <v>416</v>
       </c>
       <c r="B366"/>
@@ -12585,7 +12589,7 @@
       <c r="E366"/>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367" s="15" t="s">
+      <c r="A367" s="14" t="s">
         <v>417</v>
       </c>
       <c r="B367"/>
@@ -12594,7 +12598,7 @@
       <c r="E367"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="15" t="s">
+      <c r="A368" s="14" t="s">
         <v>418</v>
       </c>
       <c r="B368"/>
@@ -12603,7 +12607,7 @@
       <c r="E368"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369" s="15" t="s">
+      <c r="A369" s="14" t="s">
         <v>419</v>
       </c>
       <c r="B369"/>
@@ -12612,7 +12616,7 @@
       <c r="E369"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" s="15" t="s">
+      <c r="A370" s="14" t="s">
         <v>420</v>
       </c>
       <c r="B370"/>
@@ -12621,7 +12625,7 @@
       <c r="E370"/>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371" s="15" t="s">
+      <c r="A371" s="14" t="s">
         <v>421</v>
       </c>
       <c r="B371"/>
@@ -12630,7 +12634,7 @@
       <c r="E371"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A372" s="15" t="s">
+      <c r="A372" s="14" t="s">
         <v>422</v>
       </c>
       <c r="B372"/>
@@ -12639,7 +12643,7 @@
       <c r="E372"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373" s="15" t="s">
+      <c r="A373" s="14" t="s">
         <v>423</v>
       </c>
       <c r="B373"/>
@@ -12648,7 +12652,7 @@
       <c r="E373"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374" s="15" t="s">
+      <c r="A374" s="14" t="s">
         <v>424</v>
       </c>
       <c r="B374"/>
@@ -12657,7 +12661,7 @@
       <c r="E374"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="15" t="s">
+      <c r="A375" s="14" t="s">
         <v>425</v>
       </c>
       <c r="B375"/>
@@ -12666,7 +12670,7 @@
       <c r="E375"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A376" s="15" t="s">
+      <c r="A376" s="14" t="s">
         <v>426</v>
       </c>
       <c r="B376"/>
@@ -12675,7 +12679,7 @@
       <c r="E376"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="15" t="s">
+      <c r="A377" s="14" t="s">
         <v>427</v>
       </c>
       <c r="B377"/>
@@ -12684,7 +12688,7 @@
       <c r="E377"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378" s="15" t="s">
+      <c r="A378" s="14" t="s">
         <v>428</v>
       </c>
       <c r="B378"/>
@@ -12693,7 +12697,7 @@
       <c r="E378"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379" s="15" t="s">
+      <c r="A379" s="14" t="s">
         <v>429</v>
       </c>
       <c r="B379"/>
@@ -12702,7 +12706,7 @@
       <c r="E379"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380" s="15" t="s">
+      <c r="A380" s="14" t="s">
         <v>430</v>
       </c>
       <c r="B380"/>
@@ -12711,7 +12715,7 @@
       <c r="E380"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A381" s="15" t="s">
+      <c r="A381" s="14" t="s">
         <v>431</v>
       </c>
       <c r="B381"/>
@@ -12720,7 +12724,7 @@
       <c r="E381"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" s="15" t="s">
+      <c r="A382" s="14" t="s">
         <v>432</v>
       </c>
       <c r="B382"/>
@@ -12729,7 +12733,7 @@
       <c r="E382"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383" s="15" t="s">
+      <c r="A383" s="14" t="s">
         <v>433</v>
       </c>
       <c r="B383"/>
@@ -12738,7 +12742,7 @@
       <c r="E383"/>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" s="15" t="s">
+      <c r="A384" s="14" t="s">
         <v>434</v>
       </c>
       <c r="B384"/>
@@ -12747,7 +12751,7 @@
       <c r="E384"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A385" s="15" t="s">
+      <c r="A385" s="14" t="s">
         <v>435</v>
       </c>
       <c r="B385"/>
@@ -12756,7 +12760,7 @@
       <c r="E385"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A386" s="15" t="s">
+      <c r="A386" s="14" t="s">
         <v>436</v>
       </c>
       <c r="B386"/>
@@ -12765,7 +12769,7 @@
       <c r="E386"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A387" s="15" t="s">
+      <c r="A387" s="14" t="s">
         <v>437</v>
       </c>
       <c r="B387"/>
@@ -12774,7 +12778,7 @@
       <c r="E387"/>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A388" s="15" t="s">
+      <c r="A388" s="14" t="s">
         <v>438</v>
       </c>
       <c r="B388"/>
@@ -12783,7 +12787,7 @@
       <c r="E388"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A389" s="15" t="s">
+      <c r="A389" s="14" t="s">
         <v>439</v>
       </c>
       <c r="B389"/>
@@ -12792,7 +12796,7 @@
       <c r="E389"/>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A390" s="15" t="s">
+      <c r="A390" s="14" t="s">
         <v>440</v>
       </c>
       <c r="B390"/>
@@ -12801,7 +12805,7 @@
       <c r="E390"/>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391" s="15" t="s">
+      <c r="A391" s="14" t="s">
         <v>441</v>
       </c>
       <c r="B391"/>
@@ -12810,7 +12814,7 @@
       <c r="E391"/>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A392" s="15" t="s">
+      <c r="A392" s="14" t="s">
         <v>442</v>
       </c>
       <c r="B392"/>
@@ -12819,7 +12823,7 @@
       <c r="E392"/>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A393" s="15" t="s">
+      <c r="A393" s="14" t="s">
         <v>443</v>
       </c>
       <c r="B393"/>
@@ -12828,7 +12832,7 @@
       <c r="E393"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A394" s="15" t="s">
+      <c r="A394" s="14" t="s">
         <v>444</v>
       </c>
       <c r="B394"/>
@@ -12837,7 +12841,7 @@
       <c r="E394"/>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A395" s="15" t="s">
+      <c r="A395" s="14" t="s">
         <v>445</v>
       </c>
       <c r="B395"/>
@@ -12846,7 +12850,7 @@
       <c r="E395"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A396" s="15" t="s">
+      <c r="A396" s="14" t="s">
         <v>446</v>
       </c>
       <c r="B396"/>
@@ -12855,7 +12859,7 @@
       <c r="E396"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A397" s="15" t="s">
+      <c r="A397" s="14" t="s">
         <v>447</v>
       </c>
       <c r="B397"/>
@@ -12864,7 +12868,7 @@
       <c r="E397"/>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A398" s="15" t="s">
+      <c r="A398" s="14" t="s">
         <v>448</v>
       </c>
       <c r="B398"/>
@@ -12873,7 +12877,7 @@
       <c r="E398"/>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A399" s="15" t="s">
+      <c r="A399" s="14" t="s">
         <v>449</v>
       </c>
       <c r="B399"/>
@@ -12882,7 +12886,7 @@
       <c r="E399"/>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A400" s="15" t="s">
+      <c r="A400" s="14" t="s">
         <v>450</v>
       </c>
       <c r="B400"/>
@@ -12891,20 +12895,20 @@
       <c r="E400"/>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A401" s="15" t="s">
+      <c r="A401" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="B401" s="16">
+      <c r="B401" s="15">
         <v>1</v>
       </c>
       <c r="C401"/>
       <c r="D401"/>
-      <c r="E401" s="15" t="s">
+      <c r="E401" s="14" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A402" s="15" t="s">
+      <c r="A402" s="14" t="s">
         <v>453</v>
       </c>
       <c r="B402"/>
@@ -12913,7 +12917,7 @@
       <c r="E402"/>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A403" s="15" t="s">
+      <c r="A403" s="14" t="s">
         <v>454</v>
       </c>
       <c r="B403"/>
@@ -12922,7 +12926,7 @@
       <c r="E403"/>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A404" s="15" t="s">
+      <c r="A404" s="14" t="s">
         <v>455</v>
       </c>
       <c r="B404"/>
@@ -12931,7 +12935,7 @@
       <c r="E404"/>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405" s="15" t="s">
+      <c r="A405" s="14" t="s">
         <v>456</v>
       </c>
       <c r="B405"/>
@@ -12940,7 +12944,7 @@
       <c r="E405"/>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A406" s="15" t="s">
+      <c r="A406" s="14" t="s">
         <v>457</v>
       </c>
       <c r="B406"/>
@@ -12949,7 +12953,7 @@
       <c r="E406"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A407" s="15" t="s">
+      <c r="A407" s="14" t="s">
         <v>458</v>
       </c>
       <c r="B407"/>
@@ -12958,7 +12962,7 @@
       <c r="E407"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A408" s="15" t="s">
+      <c r="A408" s="14" t="s">
         <v>459</v>
       </c>
       <c r="B408"/>
@@ -12967,7 +12971,7 @@
       <c r="E408"/>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A409" s="15" t="s">
+      <c r="A409" s="14" t="s">
         <v>460</v>
       </c>
       <c r="B409"/>
@@ -12976,7 +12980,7 @@
       <c r="E409"/>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A410" s="15" t="s">
+      <c r="A410" s="14" t="s">
         <v>461</v>
       </c>
       <c r="B410"/>
@@ -12985,7 +12989,7 @@
       <c r="E410"/>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A411" s="15" t="s">
+      <c r="A411" s="14" t="s">
         <v>462</v>
       </c>
       <c r="B411"/>
@@ -12994,20 +12998,20 @@
       <c r="E411"/>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412" s="17" t="s">
+      <c r="A412" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="B412" s="18">
+      <c r="B412" s="17">
         <v>1</v>
       </c>
-      <c r="C412" s="18"/>
-      <c r="D412" s="18"/>
-      <c r="E412" s="17" t="s">
+      <c r="C412" s="17"/>
+      <c r="D412" s="17"/>
+      <c r="E412" s="16" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A413" s="15" t="s">
+      <c r="A413" s="14" t="s">
         <v>465</v>
       </c>
       <c r="B413"/>
@@ -13016,7 +13020,7 @@
       <c r="E413"/>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A414" s="15" t="s">
+      <c r="A414" s="14" t="s">
         <v>466</v>
       </c>
       <c r="B414"/>
@@ -13025,7 +13029,7 @@
       <c r="E414"/>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A415" s="15" t="s">
+      <c r="A415" s="14" t="s">
         <v>467</v>
       </c>
       <c r="B415"/>
@@ -13034,7 +13038,7 @@
       <c r="E415"/>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A416" s="15" t="s">
+      <c r="A416" s="14" t="s">
         <v>468</v>
       </c>
       <c r="B416"/>
@@ -13043,7 +13047,7 @@
       <c r="E416"/>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A417" s="15" t="s">
+      <c r="A417" s="14" t="s">
         <v>469</v>
       </c>
       <c r="B417"/>
@@ -13052,20 +13056,20 @@
       <c r="E417"/>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A418" s="15" t="s">
+      <c r="A418" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="B418" s="16">
+      <c r="B418" s="15">
         <v>1</v>
       </c>
       <c r="C418"/>
       <c r="D418"/>
-      <c r="E418" s="15" t="s">
+      <c r="E418" s="14" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A419" s="15" t="s">
+      <c r="A419" s="14" t="s">
         <v>471</v>
       </c>
       <c r="B419"/>
@@ -13074,40 +13078,46 @@
       <c r="E419"/>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A420" s="15" t="s">
+      <c r="A420" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="B420" s="16">
+      <c r="B420" s="15">
         <v>1</v>
       </c>
       <c r="C420"/>
       <c r="D420"/>
-      <c r="E420" s="15" t="s">
+      <c r="E420" s="14" t="s">
         <v>998</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A421" s="15" t="s">
+      <c r="A421" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="B421" s="16">
+      <c r="B421" s="15">
         <v>1</v>
       </c>
       <c r="C421"/>
       <c r="D421"/>
-      <c r="E421" s="15" t="s">
-        <v>945</v>
+      <c r="E421" s="14" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A422" s="19"/>
-      <c r="B422" s="20"/>
+      <c r="A422" s="19" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B422" s="20">
+        <v>1</v>
+      </c>
       <c r="C422" s="20"/>
       <c r="D422" s="20"/>
-      <c r="E422" s="19"/>
+      <c r="E422" s="19" t="s">
+        <v>945</v>
+      </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A423" s="15" t="s">
+      <c r="A423" s="14" t="s">
         <v>946</v>
       </c>
       <c r="B423"/>
@@ -13116,7 +13126,7 @@
       <c r="E423"/>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A424" s="15" t="s">
+      <c r="A424" s="14" t="s">
         <v>947</v>
       </c>
       <c r="B424"/>
@@ -13125,7 +13135,7 @@
       <c r="E424"/>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A425" s="15" t="s">
+      <c r="A425" s="14" t="s">
         <v>948</v>
       </c>
       <c r="B425"/>
@@ -13134,7 +13144,7 @@
       <c r="E425"/>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" s="15" t="s">
+      <c r="A426" s="14" t="s">
         <v>949</v>
       </c>
       <c r="B426"/>
@@ -13143,7 +13153,7 @@
       <c r="E426"/>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A427" s="15" t="s">
+      <c r="A427" s="14" t="s">
         <v>950</v>
       </c>
       <c r="B427"/>
@@ -13152,10 +13162,10 @@
       <c r="E427"/>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428" s="15" t="s">
+      <c r="A428" s="14" t="s">
         <v>951</v>
       </c>
-      <c r="B428" s="16">
+      <c r="B428" s="15">
         <v>4</v>
       </c>
       <c r="C428"/>
@@ -13163,7 +13173,7 @@
       <c r="E428"/>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A429" s="15" t="s">
+      <c r="A429" s="14" t="s">
         <v>952</v>
       </c>
       <c r="B429"/>
@@ -13172,7 +13182,7 @@
       <c r="E429"/>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A430" s="15" t="s">
+      <c r="A430" s="14" t="s">
         <v>953</v>
       </c>
       <c r="B430"/>
@@ -13181,10 +13191,10 @@
       <c r="E430"/>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A431" s="15" t="s">
+      <c r="A431" s="14" t="s">
         <v>954</v>
       </c>
-      <c r="B431" s="16">
+      <c r="B431" s="15">
         <v>4</v>
       </c>
       <c r="C431"/>
@@ -13192,7 +13202,7 @@
       <c r="E431"/>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A432" s="15" t="s">
+      <c r="A432" s="14" t="s">
         <v>955</v>
       </c>
       <c r="B432"/>
@@ -13201,7 +13211,7 @@
       <c r="E432"/>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A433" s="15" t="s">
+      <c r="A433" s="14" t="s">
         <v>956</v>
       </c>
       <c r="B433"/>
@@ -13210,7 +13220,7 @@
       <c r="E433"/>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A434" s="15" t="s">
+      <c r="A434" s="14" t="s">
         <v>957</v>
       </c>
       <c r="B434"/>
@@ -13219,7 +13229,7 @@
       <c r="E434"/>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A435" s="15" t="s">
+      <c r="A435" s="14" t="s">
         <v>958</v>
       </c>
       <c r="B435"/>
@@ -13228,7 +13238,7 @@
       <c r="E435"/>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A436" s="15" t="s">
+      <c r="A436" s="14" t="s">
         <v>959</v>
       </c>
       <c r="B436"/>
@@ -13237,7 +13247,7 @@
       <c r="E436"/>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A437" s="15" t="s">
+      <c r="A437" s="14" t="s">
         <v>960</v>
       </c>
       <c r="B437"/>
@@ -13246,7 +13256,7 @@
       <c r="E437"/>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A438" s="15" t="s">
+      <c r="A438" s="14" t="s">
         <v>961</v>
       </c>
       <c r="B438"/>
@@ -13255,7 +13265,7 @@
       <c r="E438"/>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A439" s="15" t="s">
+      <c r="A439" s="14" t="s">
         <v>962</v>
       </c>
       <c r="B439"/>
@@ -13264,7 +13274,7 @@
       <c r="E439"/>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A440" s="15" t="s">
+      <c r="A440" s="14" t="s">
         <v>963</v>
       </c>
       <c r="B440"/>
@@ -13273,7 +13283,7 @@
       <c r="E440"/>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A441" s="15" t="s">
+      <c r="A441" s="14" t="s">
         <v>964</v>
       </c>
       <c r="B441"/>
@@ -13282,7 +13292,7 @@
       <c r="E441"/>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A442" s="15" t="s">
+      <c r="A442" s="14" t="s">
         <v>965</v>
       </c>
       <c r="B442"/>
@@ -13291,47 +13301,47 @@
       <c r="E442"/>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A443" s="15" t="s">
+      <c r="A443" s="14" t="s">
         <v>966</v>
       </c>
       <c r="B443"/>
       <c r="C443"/>
       <c r="D443"/>
-      <c r="E443" s="15" t="s">
+      <c r="E443" s="14" t="s">
         <v>999</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A444" s="15" t="s">
+      <c r="A444" s="14" t="s">
         <v>967</v>
       </c>
-      <c r="B444" s="16">
+      <c r="B444" s="15">
         <v>1</v>
       </c>
       <c r="C444"/>
       <c r="D444"/>
-      <c r="E444" s="15" t="s">
+      <c r="E444" s="14" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A445" s="15" t="s">
+      <c r="A445" s="14" t="s">
         <v>968</v>
       </c>
-      <c r="B445" s="16">
+      <c r="B445" s="15">
         <v>1</v>
       </c>
       <c r="C445"/>
       <c r="D445"/>
-      <c r="E445" s="15" t="s">
+      <c r="E445" s="14" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A446" s="15" t="s">
+      <c r="A446" s="14" t="s">
         <v>969</v>
       </c>
-      <c r="B446" s="16">
+      <c r="B446" s="15">
         <v>7</v>
       </c>
       <c r="C446"/>
@@ -13339,14 +13349,14 @@
       <c r="E446"/>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A447" s="15" t="s">
+      <c r="A447" s="14" t="s">
         <v>970</v>
       </c>
-      <c r="B447" s="16">
+      <c r="B447" s="15">
         <v>7</v>
       </c>
       <c r="C447"/>
-      <c r="D447" s="16">
+      <c r="D447" s="15">
         <v>1</v>
       </c>
       <c r="E447" t="s">
@@ -13354,14 +13364,14 @@
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A448" s="15" t="s">
+      <c r="A448" s="14" t="s">
         <v>972</v>
       </c>
-      <c r="B448" s="16">
+      <c r="B448" s="15">
         <v>7</v>
       </c>
       <c r="C448"/>
-      <c r="D448" s="16">
+      <c r="D448" s="15">
         <v>2</v>
       </c>
       <c r="E448" t="s">
@@ -13369,14 +13379,14 @@
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A449" s="15" t="s">
+      <c r="A449" s="14" t="s">
         <v>1002</v>
       </c>
-      <c r="B449" s="16">
+      <c r="B449" s="15">
         <v>7</v>
       </c>
       <c r="C449"/>
-      <c r="D449" s="16">
+      <c r="D449" s="15">
         <v>4</v>
       </c>
       <c r="E449" t="s">
@@ -13384,14 +13394,14 @@
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A450" s="15" t="s">
+      <c r="A450" s="14" t="s">
         <v>976</v>
       </c>
-      <c r="B450" s="16">
+      <c r="B450" s="15">
         <v>7</v>
       </c>
       <c r="C450"/>
-      <c r="D450" s="16">
+      <c r="D450" s="15">
         <v>6</v>
       </c>
       <c r="E450" t="s">
@@ -13399,7 +13409,7 @@
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A451" s="15" t="s">
+      <c r="A451" s="14" t="s">
         <v>978</v>
       </c>
       <c r="B451"/>
@@ -13408,7 +13418,7 @@
       <c r="E451"/>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A452" s="15" t="s">
+      <c r="A452" s="14" t="s">
         <v>979</v>
       </c>
       <c r="B452"/>
@@ -13417,10 +13427,10 @@
       <c r="E452"/>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A453" s="15" t="s">
+      <c r="A453" s="14" t="s">
         <v>980</v>
       </c>
-      <c r="B453" s="16">
+      <c r="B453" s="15">
         <v>4</v>
       </c>
       <c r="C453"/>
@@ -13428,7 +13438,7 @@
       <c r="E453"/>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A454" s="15" t="s">
+      <c r="A454" s="14" t="s">
         <v>981</v>
       </c>
       <c r="B454"/>
@@ -13437,10 +13447,10 @@
       <c r="E454"/>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A455" s="15" t="s">
+      <c r="A455" s="14" t="s">
         <v>982</v>
       </c>
-      <c r="B455" s="16">
+      <c r="B455" s="15">
         <v>4</v>
       </c>
       <c r="C455"/>
@@ -13448,10 +13458,10 @@
       <c r="E455"/>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A456" s="15" t="s">
+      <c r="A456" s="14" t="s">
         <v>983</v>
       </c>
-      <c r="B456" s="16">
+      <c r="B456" s="15">
         <v>4</v>
       </c>
       <c r="C456"/>
@@ -13459,20 +13469,20 @@
       <c r="E456"/>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A457" s="15" t="s">
+      <c r="A457" s="14" t="s">
         <v>984</v>
       </c>
-      <c r="B457" s="16">
+      <c r="B457" s="15">
         <v>1</v>
       </c>
       <c r="C457"/>
       <c r="D457"/>
-      <c r="E457" s="15" t="s">
+      <c r="E457" s="14" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A458" s="15" t="s">
+      <c r="A458" s="14" t="s">
         <v>986</v>
       </c>
       <c r="B458"/>
@@ -13481,7 +13491,7 @@
       <c r="E458"/>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A459" s="15" t="s">
+      <c r="A459" s="14" t="s">
         <v>987</v>
       </c>
       <c r="B459"/>
@@ -13490,7 +13500,7 @@
       <c r="E459"/>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A460" s="15" t="s">
+      <c r="A460" s="14" t="s">
         <v>988</v>
       </c>
       <c r="B460"/>
@@ -13499,536 +13509,537 @@
       <c r="E460"/>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A461" s="15" t="s">
+      <c r="A461" s="14" t="s">
         <v>989</v>
       </c>
-      <c r="B461" s="16">
+      <c r="B461" s="15">
         <v>1</v>
       </c>
       <c r="C461"/>
       <c r="D461"/>
-      <c r="E461" s="15" t="s">
+      <c r="E461" s="14" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A462" s="15" t="s">
+      <c r="A462" s="14" t="s">
         <v>1003</v>
       </c>
-      <c r="B462" s="16">
+      <c r="B462" s="15">
         <v>1</v>
       </c>
       <c r="C462"/>
       <c r="D462"/>
-      <c r="E462" s="15" t="s">
+      <c r="E462" s="14" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B463" s="16">
+      <c r="B463" s="15">
         <v>3</v>
       </c>
       <c r="C463"/>
       <c r="D463"/>
-      <c r="E463" s="15" t="s">
+      <c r="E463" s="14" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B464" s="16">
+      <c r="B464" s="15">
         <v>3</v>
       </c>
       <c r="C464"/>
       <c r="D464"/>
-      <c r="E464" s="15" t="s">
+      <c r="E464" s="14" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="465" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B465" s="16">
+      <c r="B465" s="15">
         <v>3</v>
       </c>
       <c r="C465"/>
       <c r="D465"/>
-      <c r="E465" s="15" t="s">
+      <c r="E465" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="466" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B466" s="16">
+      <c r="B466" s="15">
         <v>3</v>
       </c>
       <c r="C466" s="13"/>
       <c r="D466" s="13"/>
-      <c r="E466" s="15" t="s">
+      <c r="E466" s="14" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="467" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B467" s="16">
+      <c r="B467" s="15">
         <v>3</v>
       </c>
       <c r="C467" s="13"/>
       <c r="D467" s="13"/>
-      <c r="E467" s="15" t="s">
+      <c r="E467" s="14" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="468" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B468" s="16">
+      <c r="B468" s="15">
         <v>3</v>
       </c>
       <c r="C468" s="13"/>
       <c r="D468" s="13"/>
-      <c r="E468" s="15" t="s">
+      <c r="E468" s="14" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="469" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B469" s="16">
+      <c r="B469" s="15">
         <v>3</v>
       </c>
       <c r="C469" s="13"/>
       <c r="D469" s="13"/>
-      <c r="E469" s="15" t="s">
+      <c r="E469" s="14" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="470" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B470" s="16">
+      <c r="B470" s="15">
         <v>3</v>
       </c>
       <c r="C470" s="12"/>
       <c r="D470" s="12"/>
-      <c r="E470" s="15" t="s">
+      <c r="E470" s="14" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="471" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B471" s="16">
+      <c r="B471" s="15">
         <v>3</v>
       </c>
-      <c r="E471" s="15" t="s">
+      <c r="E471" s="14" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="472" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B472" s="16">
+      <c r="B472" s="15">
         <v>3</v>
       </c>
-      <c r="E472" s="15" t="s">
+      <c r="E472" s="14" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="473" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B473" s="16">
+      <c r="B473" s="15">
         <v>3</v>
       </c>
-      <c r="E473" s="15" t="s">
+      <c r="E473" s="14" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="474" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B474" s="16">
+      <c r="B474" s="15">
         <v>3</v>
       </c>
-      <c r="E474" s="15" t="s">
+      <c r="E474" s="14" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="475" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B475" s="16">
+      <c r="B475" s="15">
         <v>3</v>
       </c>
-      <c r="E475" s="15" t="s">
+      <c r="E475" s="14" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="476" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B476" s="16">
+      <c r="B476" s="15">
         <v>3</v>
       </c>
-      <c r="E476" s="15" t="s">
+      <c r="E476" s="14" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="477" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B477" s="16">
+      <c r="B477" s="15">
         <v>3</v>
       </c>
-      <c r="E477" s="15" t="s">
+      <c r="E477" s="14" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="478" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B478" s="16">
+      <c r="B478" s="15">
         <v>3</v>
       </c>
-      <c r="E478" s="15" t="s">
+      <c r="E478" s="14" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="479" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B479" s="16">
+      <c r="B479" s="15">
         <v>3</v>
       </c>
-      <c r="E479" s="15" t="s">
+      <c r="E479" s="14" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="480" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B480" s="16">
+      <c r="B480" s="15">
         <v>3</v>
       </c>
-      <c r="E480" s="15" t="s">
+      <c r="E480" s="14" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="481" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B481" s="16">
+      <c r="B481" s="15">
         <v>3</v>
       </c>
-      <c r="E481" s="15" t="s">
+      <c r="E481" s="14" t="s">
         <v>1022</v>
       </c>
     </row>
     <row r="482" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B482" s="16">
+      <c r="B482" s="15">
         <v>3</v>
       </c>
-      <c r="E482" s="15" t="s">
+      <c r="E482" s="14" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="483" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B483" s="16">
+      <c r="B483" s="15">
         <v>3</v>
       </c>
-      <c r="E483" s="15" t="s">
+      <c r="E483" s="14" t="s">
         <v>1024</v>
       </c>
     </row>
     <row r="484" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B484" s="16">
+      <c r="B484" s="15">
         <v>3</v>
       </c>
-      <c r="E484" s="15" t="s">
+      <c r="E484" s="14" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="485" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B485" s="16">
+      <c r="B485" s="15">
         <v>3</v>
       </c>
-      <c r="E485" s="15" t="s">
+      <c r="E485" s="14" t="s">
         <v>1026</v>
       </c>
     </row>
     <row r="486" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B486" s="16">
+      <c r="B486" s="15">
         <v>3</v>
       </c>
-      <c r="E486" s="15" t="s">
+      <c r="E486" s="14" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="487" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B487" s="16">
+      <c r="B487" s="15">
         <v>3</v>
       </c>
-      <c r="E487" s="15" t="s">
+      <c r="E487" s="14" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="488" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B488" s="16">
+      <c r="B488" s="15">
         <v>3</v>
       </c>
-      <c r="E488" s="15" t="s">
+      <c r="E488" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="489" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B489" s="16">
+      <c r="B489" s="15">
         <v>3</v>
       </c>
-      <c r="E489" s="15" t="s">
+      <c r="E489" s="14" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="490" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B490" s="16">
+      <c r="B490" s="15">
         <v>3</v>
       </c>
-      <c r="E490" s="15" t="s">
+      <c r="E490" s="14" t="s">
         <v>1030</v>
       </c>
     </row>
     <row r="491" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B491" s="16">
+      <c r="B491" s="15">
         <v>3</v>
       </c>
-      <c r="E491" s="15" t="s">
+      <c r="E491" s="14" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="492" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B492" s="16">
+      <c r="B492" s="15">
         <v>3</v>
       </c>
-      <c r="E492" s="15" t="s">
+      <c r="E492" s="14" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="493" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B493" s="16">
+      <c r="B493" s="15">
         <v>3</v>
       </c>
-      <c r="E493" s="15" t="s">
+      <c r="E493" s="14" t="s">
         <v>1032</v>
       </c>
     </row>
     <row r="494" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B494" s="16">
+      <c r="B494" s="15">
         <v>3</v>
       </c>
-      <c r="E494" s="15" t="s">
+      <c r="E494" s="14" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="495" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B495" s="16">
+      <c r="B495" s="15">
         <v>3</v>
       </c>
-      <c r="E495" s="15" t="s">
+      <c r="E495" s="14" t="s">
         <v>1034</v>
       </c>
     </row>
     <row r="496" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B496" s="16">
+      <c r="B496" s="15">
         <v>3</v>
       </c>
-      <c r="E496" s="15" t="s">
+      <c r="E496" s="14" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="497" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B497" s="16">
+      <c r="B497" s="15">
         <v>3</v>
       </c>
-      <c r="E497" s="15" t="s">
+      <c r="E497" s="14" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="498" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B498" s="16">
+      <c r="B498" s="15">
         <v>3</v>
       </c>
-      <c r="E498" s="15" t="s">
+      <c r="E498" s="14" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="499" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B499" s="16">
+      <c r="B499" s="15">
         <v>3</v>
       </c>
-      <c r="E499" s="15" t="s">
+      <c r="E499" s="14" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="500" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B500" s="16">
+      <c r="B500" s="15">
         <v>3</v>
       </c>
-      <c r="E500" s="15" t="s">
+      <c r="E500" s="14" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="501" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B501" s="16">
+      <c r="B501" s="15">
         <v>3</v>
       </c>
-      <c r="E501" s="15" t="s">
+      <c r="E501" s="14" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="502" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B502" s="16">
+      <c r="B502" s="15">
         <v>3</v>
       </c>
-      <c r="E502" s="15" t="s">
+      <c r="E502" s="14" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="503" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B503" s="16">
+      <c r="B503" s="15">
         <v>3</v>
       </c>
-      <c r="E503" s="15" t="s">
+      <c r="E503" s="14" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="504" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B504" s="16">
+      <c r="B504" s="15">
         <v>3</v>
       </c>
-      <c r="E504" s="15" t="s">
+      <c r="E504" s="14" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="505" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B505" s="16">
+      <c r="B505" s="15">
         <v>3</v>
       </c>
-      <c r="E505" s="15" t="s">
+      <c r="E505" s="14" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="506" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B506" s="16">
+      <c r="B506" s="15">
         <v>3</v>
       </c>
-      <c r="E506" s="15" t="s">
+      <c r="E506" s="14" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="507" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B507" s="16">
+      <c r="B507" s="15">
         <v>3</v>
       </c>
-      <c r="E507" s="15" t="s">
+      <c r="E507" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="508" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B508" s="16">
+      <c r="B508" s="15">
         <v>3</v>
       </c>
-      <c r="E508" s="15" t="s">
+      <c r="E508" s="14" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="509" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B509" s="16">
+      <c r="B509" s="15">
         <v>3</v>
       </c>
-      <c r="E509" s="15" t="s">
+      <c r="E509" s="14" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="510" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B510" s="16">
+      <c r="B510" s="15">
         <v>3</v>
       </c>
-      <c r="E510" s="15" t="s">
+      <c r="E510" s="14" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="511" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B511" s="16">
+      <c r="B511" s="15">
         <v>3</v>
       </c>
-      <c r="E511" s="15" t="s">
+      <c r="E511" s="14" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="512" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B512" s="16">
+      <c r="B512" s="15">
         <v>3</v>
       </c>
-      <c r="E512" s="15" t="s">
+      <c r="E512" s="14" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="513" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B513" s="16">
+      <c r="B513" s="15">
         <v>3</v>
       </c>
-      <c r="E513" s="15" t="s">
+      <c r="E513" s="14" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="514" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B514" s="16">
+      <c r="B514" s="15">
         <v>3</v>
       </c>
-      <c r="E514" s="15" t="s">
+      <c r="E514" s="14" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="515" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B515" s="16">
+      <c r="B515" s="15">
         <v>3</v>
       </c>
-      <c r="E515" s="15" t="s">
+      <c r="E515" s="14" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="516" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B516" s="16">
+      <c r="B516" s="15">
         <v>3</v>
       </c>
-      <c r="E516" s="15" t="s">
+      <c r="E516" s="14" t="s">
         <v>1054</v>
       </c>
     </row>
     <row r="517" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B517" s="16">
+      <c r="B517" s="15">
         <v>3</v>
       </c>
-      <c r="E517" s="15" t="s">
+      <c r="E517" s="14" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="518" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B518" s="16">
+      <c r="B518" s="15">
         <v>3</v>
       </c>
-      <c r="E518" s="15" t="s">
+      <c r="E518" s="14" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="519" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B519" s="16">
+      <c r="B519" s="15">
         <v>3</v>
       </c>
-      <c r="E519" s="15" t="s">
+      <c r="E519" s="14" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="520" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B520" s="16">
+      <c r="B520" s="15">
         <v>3</v>
       </c>
-      <c r="E520" s="15" t="s">
+      <c r="E520" s="14" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="521" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B521" s="16">
+      <c r="B521" s="15">
         <v>3</v>
       </c>
-      <c r="E521" s="15" t="s">
+      <c r="E521" s="14" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="522" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B522" s="16">
+      <c r="B522" s="15">
         <v>3</v>
       </c>
-      <c r="E522" s="15" t="s">
+      <c r="E522" s="14" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="523" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B523" s="16">
+      <c r="B523" s="15">
         <v>3</v>
       </c>
-      <c r="E523" s="15" t="s">
+      <c r="E523" s="14" t="s">
         <v>1060</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>